--- a/Builder_monitor/configuation.xlsx
+++ b/Builder_monitor/configuation.xlsx
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현대홈쇼핑_챗봇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kakaoUtterance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +55,10 @@
   </si>
   <si>
     <t>발화값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대홈쇼핑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +452,7 @@
   <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -497,13 +497,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
